--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Task Description</t>
   </si>
@@ -37,13 +37,16 @@
   </si>
   <si>
     <t>Fix Landscape in WomenList</t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -60,13 +63,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -87,16 +102,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="טוב" xfId="2" builtinId="26"/>
     <cellStyle name="כותרת 2" xfId="1" builtinId="17"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -392,7 +410,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -415,8 +433,11 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" thickTop="1"/>
     <row r="3" spans="1:7">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:7">

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>Task Description</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>Done</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expandable Navigation Drawer </t>
   </si>
 </sst>
 </file>
@@ -407,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -441,8 +444,11 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -458,6 +464,14 @@
     <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
   <si>
     <t>Task Description</t>
   </si>
@@ -413,7 +413,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -452,18 +452,27 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:7">
